--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04E632A-2C5F-4AAC-BCB5-257EACDCB566}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Stage 1</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Jensen Plowright</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -197,8 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,176 +537,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04E632A-2C5F-4AAC-BCB5-257EACDCB566}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38BA7642-428D-4FF0-9151-820AC2751FF7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Stage 1</t>
   </si>
@@ -165,6 +165,54 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Lewis Bower</t>
+  </si>
+  <si>
+    <t>Jake Stewart</t>
+  </si>
+  <si>
+    <t>Aaron Gate</t>
+  </si>
+  <si>
+    <t>Žak Eržen</t>
+  </si>
+  <si>
+    <t>Finn Fisher-Black</t>
+  </si>
+  <si>
+    <t>Matthew Fox</t>
+  </si>
+  <si>
+    <t>Anthon Charmig</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Brady Gilmore</t>
+  </si>
+  <si>
+    <t>Edoardo Zambanini</t>
+  </si>
+  <si>
+    <t>Andrea Raccagni Noviero</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Simone Velasco</t>
+  </si>
+  <si>
+    <t>Patrick Eddy</t>
+  </si>
+  <si>
+    <t>Andrea Bagioli</t>
   </si>
 </sst>
 </file>
@@ -537,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +771,129 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>46046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>46047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38BA7642-428D-4FF0-9151-820AC2751FF7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D70C3D0-03B4-4773-90BF-12E7EBF10223}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Stage 1</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Andrea Bagioli</t>
+  </si>
+  <si>
+    <t>Cadel Evans Great Ocean Road Race</t>
+  </si>
+  <si>
+    <t>One day race</t>
+  </si>
+  <si>
+    <t>Gal Glivar</t>
+  </si>
+  <si>
+    <t>Francesco Busatto</t>
   </si>
 </sst>
 </file>
@@ -585,29 +597,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H24:H25"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -648,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -689,7 +700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -730,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -771,7 +782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -812,7 +823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -853,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -892,6 +903,47 @@
       </c>
       <c r="M7" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D70C3D0-03B4-4773-90BF-12E7EBF10223}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0842B725-A263-4D85-BB06-EEAC7D928F3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Stage 1</t>
   </si>
@@ -225,6 +225,39 @@
   </si>
   <si>
     <t>Francesco Busatto</t>
+  </si>
+  <si>
+    <t>Volta a la Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>Biniam Girmay</t>
+  </si>
+  <si>
+    <t>Arne Marit</t>
+  </si>
+  <si>
+    <t>Giovanni Lonardi</t>
+  </si>
+  <si>
+    <t>Carl-Frederik Bévort</t>
+  </si>
+  <si>
+    <t>Aleksandr Vlasov</t>
+  </si>
+  <si>
+    <t>Alberto Bruttomesso</t>
+  </si>
+  <si>
+    <t>Tommaso Nencini</t>
+  </si>
+  <si>
+    <t>Mikel Retegi</t>
+  </si>
+  <si>
+    <t>Dries Van Gestel</t>
+  </si>
+  <si>
+    <t>Clément Alleno</t>
   </si>
 </sst>
 </file>
@@ -597,28 +630,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -659,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -700,7 +733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -741,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -782,7 +815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -823,7 +856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -864,7 +897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -905,7 +938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46054</v>
       </c>
@@ -944,10 +977,52 @@
       </c>
       <c r="M8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0842B725-A263-4D85-BB06-EEAC7D928F3F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5C1628-E645-4CFE-831B-1133ECE9BB2D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Stage 1</t>
   </si>
@@ -258,16 +258,49 @@
   </si>
   <si>
     <t>Clément Alleno</t>
+  </si>
+  <si>
+    <t>Remco Evenepoel</t>
+  </si>
+  <si>
+    <t>Mathias Vacek</t>
+  </si>
+  <si>
+    <t>Ben Turner</t>
+  </si>
+  <si>
+    <t>Florian Vermeersch</t>
+  </si>
+  <si>
+    <t>Magnus Sheffield</t>
+  </si>
+  <si>
+    <t>Brandon McNulty</t>
+  </si>
+  <si>
+    <t>Felix Großschartner</t>
+  </si>
+  <si>
+    <t>Mathias Norsgaard</t>
+  </si>
+  <si>
+    <t>Iván Romeo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F25" sqref="E25:F25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1053,49 @@
         <v>73</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5C1628-E645-4CFE-831B-1133ECE9BB2D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E8599C-586B-4BBC-84FF-AC9861DAD650}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Stage 1</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>Iván Romeo</t>
+  </si>
+  <si>
+    <t>Andrew August</t>
+  </si>
+  <si>
+    <t>Ådne Holter</t>
+  </si>
+  <si>
+    <t>Jonathan Vervenne</t>
+  </si>
+  <si>
+    <t>Magnus Cort</t>
+  </si>
+  <si>
+    <t>Mirco Maestri</t>
   </si>
 </sst>
 </file>
@@ -663,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1109,47 @@
         <v>82</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E8599C-586B-4BBC-84FF-AC9861DAD650}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00A51B8-A11B-4F1C-BF9B-52124B02811E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>Stage 1</t>
   </si>
@@ -300,6 +300,42 @@
   </si>
   <si>
     <t>Mirco Maestri</t>
+  </si>
+  <si>
+    <t>Volta Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>João Almeida</t>
+  </si>
+  <si>
+    <t>Giulio Pellizzari</t>
+  </si>
+  <si>
+    <t>Antonio Tiberi</t>
+  </si>
+  <si>
+    <t>Riley Sheehan</t>
+  </si>
+  <si>
+    <t>Viktor Soenens</t>
+  </si>
+  <si>
+    <t>Raúl García Pierna</t>
+  </si>
+  <si>
+    <t>Emil Herzog</t>
+  </si>
+  <si>
+    <t>Jasper Schoofs</t>
+  </si>
+  <si>
+    <t>Adrià Pericas</t>
+  </si>
+  <si>
+    <t>Sven Erik Bystrøm</t>
+  </si>
+  <si>
+    <t>Diego Uriarte</t>
   </si>
 </sst>
 </file>
@@ -678,28 +714,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -740,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -781,7 +815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -822,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -863,7 +897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -904,7 +938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -945,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -986,7 +1020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>46054</v>
       </c>
@@ -1027,7 +1061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46057</v>
       </c>
@@ -1068,7 +1102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46058</v>
       </c>
@@ -1109,7 +1143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46059</v>
       </c>
@@ -1147,6 +1181,88 @@
         <v>87</v>
       </c>
       <c r="M11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>68</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00A51B8-A11B-4F1C-BF9B-52124B02811E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E45DBB-7983-462C-96EE-05945FBC4361}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Stage 1</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Mirco Maestri</t>
-  </si>
-  <si>
-    <t>Volta Comunitat Valenciana</t>
   </si>
   <si>
     <t>João Almeida</t>
@@ -716,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1189,7 +1188,7 @@
         <v>46060</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1198,13 +1197,13 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>91</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
@@ -1219,10 +1218,10 @@
         <v>76</v>
       </c>
       <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
         <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1230,28 +1229,28 @@
         <v>46061</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E45DBB-7983-462C-96EE-05945FBC4361}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21537849-BC69-41E4-97BD-5EB612D22413}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>Stage 1</t>
   </si>
@@ -333,6 +333,33 @@
   </si>
   <si>
     <t>Diego Uriarte</t>
+  </si>
+  <si>
+    <t>UAE Tour</t>
+  </si>
+  <si>
+    <t>Isaac Del Toro</t>
+  </si>
+  <si>
+    <t>Cees Bol</t>
+  </si>
+  <si>
+    <t>Matteo Malucelli</t>
+  </si>
+  <si>
+    <t>Alessandro Romele</t>
+  </si>
+  <si>
+    <t>Ilan Van Wilder</t>
+  </si>
+  <si>
+    <t>Riley Pickrell</t>
+  </si>
+  <si>
+    <t>Lennert Van Eetvelt</t>
+  </si>
+  <si>
+    <t>Tobias Halland Johannessen</t>
   </si>
 </sst>
 </file>
@@ -711,25 +738,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1263,6 +1290,47 @@
       </c>
       <c r="M13" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21537849-BC69-41E4-97BD-5EB612D22413}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8954C129-90B1-4839-AB29-5BE158E985F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>Stage 1</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>Tobias Halland Johannessen</t>
+  </si>
+  <si>
+    <t>Joshua Tarling</t>
+  </si>
+  <si>
+    <t>Rémi Cavagna</t>
+  </si>
+  <si>
+    <t>Ethan Hayter</t>
+  </si>
+  <si>
+    <t>Daan Hoole</t>
+  </si>
+  <si>
+    <t>Luke Plapp</t>
+  </si>
+  <si>
+    <t>Artem Shmidt</t>
+  </si>
+  <si>
+    <t>Stefan Bissegger</t>
+  </si>
+  <si>
+    <t>Rune Herregodts</t>
   </si>
 </sst>
 </file>
@@ -738,28 +762,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -800,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -841,7 +863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -882,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -923,7 +945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -964,7 +986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -1005,7 +1027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -1046,7 +1068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46054</v>
       </c>
@@ -1087,7 +1109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46057</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46058</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46059</v>
       </c>
@@ -1210,7 +1232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46060</v>
       </c>
@@ -1251,7 +1273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46061</v>
       </c>
@@ -1292,7 +1314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46069</v>
       </c>
@@ -1331,6 +1353,47 @@
       </c>
       <c r="M14" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8954C129-90B1-4839-AB29-5BE158E985F3}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4BF37E-7CE6-45CB-A2A2-F02CF31339B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>Stage 1</t>
   </si>
@@ -384,6 +384,54 @@
   </si>
   <si>
     <t>Rune Herregodts</t>
+  </si>
+  <si>
+    <t>Isaac del Toro</t>
+  </si>
+  <si>
+    <t>Harold Tejada</t>
+  </si>
+  <si>
+    <t>Felix Gall</t>
+  </si>
+  <si>
+    <t>Derek Gee-West</t>
+  </si>
+  <si>
+    <t>Jørgen Nordhagen</t>
+  </si>
+  <si>
+    <t>Volta ao Algarve</t>
+  </si>
+  <si>
+    <t>Paul Magnier</t>
+  </si>
+  <si>
+    <t>Jordi Meeus</t>
+  </si>
+  <si>
+    <t>Pavel Bittner</t>
+  </si>
+  <si>
+    <t>Jasper Philipsen</t>
+  </si>
+  <si>
+    <t>Santiago Mesa</t>
+  </si>
+  <si>
+    <t>Arnaud De Lie</t>
+  </si>
+  <si>
+    <t>Pascal Ackermann</t>
+  </si>
+  <si>
+    <t>Kaden Groves</t>
+  </si>
+  <si>
+    <t>John Degenkolb</t>
+  </si>
+  <si>
+    <t>Oded Kogut</t>
   </si>
 </sst>
 </file>
@@ -762,26 +810,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -822,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -863,7 +913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -904,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -945,7 +995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -986,7 +1036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -1027,7 +1077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -1068,7 +1118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>46054</v>
       </c>
@@ -1109,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46057</v>
       </c>
@@ -1150,7 +1200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46058</v>
       </c>
@@ -1191,7 +1241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46059</v>
       </c>
@@ -1232,7 +1282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>46060</v>
       </c>
@@ -1273,7 +1323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>46061</v>
       </c>
@@ -1314,7 +1364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>46069</v>
       </c>
@@ -1355,7 +1405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>46070</v>
       </c>
@@ -1394,6 +1444,88 @@
       </c>
       <c r="M15" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DPshonyak\OneDrive - BluCurrent Credit Union\Desktop\Fantasy Cycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C76F7232-A002-4F27-B69B-D748C4D1C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4BF37E-7CE6-45CB-A2A2-F02CF31339B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD7B93-B884-453F-BBC2-339CA8FFB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -401,9 +401,6 @@
     <t>Jørgen Nordhagen</t>
   </si>
   <si>
-    <t>Volta ao Algarve</t>
-  </si>
-  <si>
     <t>Paul Magnier</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>Oded Kogut</t>
+  </si>
+  <si>
+    <t>Volta ao Algarve em Bicicleta</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,40 +1492,40 @@
         <v>46071</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
         <v>122</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>126</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>127</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>128</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>129</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>130</v>
-      </c>
-      <c r="M17" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DPshonyak\OneDrive - BluCurrent Credit Union\Desktop\Fantasy Cycling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD7B93-B884-453F-BBC2-339CA8FFB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="6_{791E1E6D-5D1E-411A-AA39-81A4A2AEEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76D920B-284B-4FC9-BF10-D7AD1C4DD3F4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
   <si>
     <t>Stage 1</t>
   </si>
@@ -413,9 +416,6 @@
     <t>Jasper Philipsen</t>
   </si>
   <si>
-    <t>Santiago Mesa</t>
-  </si>
-  <si>
     <t>Arnaud De Lie</t>
   </si>
   <si>
@@ -432,6 +432,72 @@
   </si>
   <si>
     <t>Volta ao Algarve em Bicicleta</t>
+  </si>
+  <si>
+    <t>Jonathan Milan</t>
+  </si>
+  <si>
+    <t>Erlend Blikra</t>
+  </si>
+  <si>
+    <t>Luka Mezgec</t>
+  </si>
+  <si>
+    <t>Daniel Skerl</t>
+  </si>
+  <si>
+    <t>Steffen De Schuyteneer</t>
+  </si>
+  <si>
+    <t>Axel Huens</t>
+  </si>
+  <si>
+    <t>Madis Mihkels</t>
+  </si>
+  <si>
+    <t>Nicolò Parisini</t>
+  </si>
+  <si>
+    <t>Matteo Milan</t>
+  </si>
+  <si>
+    <t>Gerben Thijssen</t>
+  </si>
+  <si>
+    <t>Robin Froidevaux</t>
+  </si>
+  <si>
+    <t>Emmanuel Houcou</t>
+  </si>
+  <si>
+    <t>Paul Seixas</t>
+  </si>
+  <si>
+    <t>Juan Ayuso</t>
+  </si>
+  <si>
+    <t>Oscar Onley</t>
+  </si>
+  <si>
+    <t>Matthew Riccitello</t>
+  </si>
+  <si>
+    <t>Daniel Martínez</t>
+  </si>
+  <si>
+    <t>Alessandro Pinarello</t>
+  </si>
+  <si>
+    <t>Yannis Voisard</t>
+  </si>
+  <si>
+    <t>Kévin Vauquelin</t>
+  </si>
+  <si>
+    <t>Thomas Gloag</t>
+  </si>
+  <si>
+    <t>Rui Oliveira</t>
   </si>
 </sst>
 </file>
@@ -810,28 +876,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -872,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46042</v>
       </c>
@@ -913,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -954,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -995,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46045</v>
       </c>
@@ -1036,7 +1102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46046</v>
       </c>
@@ -1077,7 +1143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46047</v>
       </c>
@@ -1118,7 +1184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46054</v>
       </c>
@@ -1159,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46057</v>
       </c>
@@ -1200,7 +1266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46058</v>
       </c>
@@ -1241,7 +1307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46059</v>
       </c>
@@ -1282,7 +1348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46060</v>
       </c>
@@ -1323,7 +1389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46061</v>
       </c>
@@ -1364,7 +1430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46069</v>
       </c>
@@ -1405,7 +1471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46070</v>
       </c>
@@ -1446,7 +1512,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46071</v>
       </c>
@@ -1487,12 +1553,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46071</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -1525,10 +1591,134 @@
         <v>129</v>
       </c>
       <c r="M17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
       </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M20" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blucurrent-my.sharepoint.com/personal/dpshonyak_blucurrent_org/Documents/Desktop/Fantasy Cycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="6_{791E1E6D-5D1E-411A-AA39-81A4A2AEEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76D920B-284B-4FC9-BF10-D7AD1C4DD3F4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{791E1E6D-5D1E-411A-AA39-81A4A2AEEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{646BD413-8109-43DB-ADB2-276ED2D3E26F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{D48BDCD1-ADE3-4EE7-A9DB-3C7F51FF7246}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
   <si>
     <t>Stage 1</t>
   </si>
@@ -498,6 +498,24 @@
   </si>
   <si>
     <t>Rui Oliveira</t>
+  </si>
+  <si>
+    <t>Filippo Ganna</t>
+  </si>
+  <si>
+    <t>Jakob Söderqvist</t>
+  </si>
+  <si>
+    <t>Thymen Arensman</t>
+  </si>
+  <si>
+    <t>Stefan Küng</t>
+  </si>
+  <si>
+    <t>Héctor Álvarez</t>
+  </si>
+  <si>
+    <t>Florian Lipowitz</t>
   </si>
 </sst>
 </file>
@@ -876,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,6 +1735,47 @@
         <v>138</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M20" xr:uid="{6820EB03-3F7F-49BA-9E92-28FA32BF7E1D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
